--- a/Collections/United_Kingdom/#United_Kingdom#Before_DecimalDay#Regular#[1953-1970]#circulation_quality.xlsx
+++ b/Collections/United_Kingdom/#United_Kingdom#Before_DecimalDay#Regular#[1953-1970]#circulation_quality.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\United_Kingdom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\United_Kingdom\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF21A2DD-AB2E-4D8C-A804-01BB511B6183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
+    <workbookView xWindow="7150" yWindow="2730" windowWidth="28800" windowHeight="17740" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="farthing" sheetId="38" r:id="rId1"/>
@@ -22,11 +23,15 @@
     <sheet name="halfcrown" sheetId="46" r:id="rId8"/>
     <sheet name="Links" sheetId="21" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,12 +39,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -55,7 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -76,12 +81,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -97,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -118,12 +123,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -139,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -160,12 +165,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -181,7 +186,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -202,12 +207,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -223,7 +228,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -244,12 +249,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -265,7 +270,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -286,12 +291,12 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -307,7 +312,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -328,12 +333,12 @@
 </file>
 
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
@@ -349,7 +354,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
       <text>
         <r>
           <rPr>
@@ -381,9 +386,6 @@
     <t>coindatabase</t>
   </si>
   <si>
-    <t>Series</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -826,12 +828,15 @@
   </si>
   <si>
     <t xml:space="preserve">330.584.400 </t>
+  </si>
+  <si>
+    <t>Subject</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1148,7 +1153,7 @@
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="2"/>
+    <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="31">
     <dxf>
@@ -1405,16 +1410,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица43" displayName="Таблица43" ref="A1:C4" totalsRowShown="0">
-  <autoFilter ref="A1:C4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица43" displayName="Таблица43" ref="A1:C4" totalsRowShown="0">
+  <autoFilter ref="A1:C4" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1716,76 +1721,76 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="48.7109375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="36.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
+    <col min="2" max="2" width="48.7265625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="24.7265625" customWidth="1"/>
+    <col min="4" max="4" width="36.7265625" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>4</v>
       </c>
       <c r="D1" s="28"/>
       <c r="E1" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="24"/>
       <c r="B2" s="26"/>
       <c r="C2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="22">
         <v>1953</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="18" t="s">
+      <c r="E3" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="F3" s="6">
         <v>0</v>
@@ -1795,21 +1800,21 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="22">
         <v>1954</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="F4" s="6">
         <v>0</v>
@@ -1819,21 +1824,21 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22">
         <v>1955</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" s="6">
         <v>0</v>
@@ -1843,21 +1848,21 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="22">
         <v>1956</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" s="6">
         <v>0</v>
@@ -1867,19 +1872,19 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="N8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="N9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="N10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1888,7 +1893,7 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3 F5">
+  <conditionalFormatting sqref="F5 F3">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1905,7 +1910,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4 F6">
+  <conditionalFormatting sqref="F6 F4">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1929,76 +1934,76 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="48.7109375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="36.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
+    <col min="2" max="2" width="48.7265625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="24.7265625" customWidth="1"/>
+    <col min="4" max="4" width="36.7265625" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>4</v>
       </c>
       <c r="D1" s="28"/>
       <c r="E1" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="24"/>
       <c r="B2" s="26"/>
       <c r="C2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="22">
         <v>1953</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="E3" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="F3" s="6">
         <v>0</v>
@@ -2008,21 +2013,21 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="22">
         <v>1954</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" s="6">
         <v>0</v>
@@ -2032,21 +2037,21 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22">
         <v>1955</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" s="6">
         <v>0</v>
@@ -2056,21 +2061,21 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="22">
         <v>1956</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" s="6">
         <v>0</v>
@@ -2080,21 +2085,21 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="22">
         <v>1957</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" s="6">
         <v>0</v>
@@ -2104,21 +2109,21 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="22">
         <v>1958</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8" s="6">
         <v>0</v>
@@ -2128,21 +2133,21 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="22">
         <v>1959</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" s="6">
         <v>1</v>
@@ -2152,21 +2157,21 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="22">
         <v>1960</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F10" s="6">
         <v>0</v>
@@ -2176,7 +2181,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="22">
         <v>1961</v>
       </c>
@@ -2200,21 +2205,21 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="22">
         <v>1962</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" s="6">
         <v>0</v>
@@ -2224,21 +2229,21 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="22">
         <v>1963</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F13" s="6">
         <v>0</v>
@@ -2248,21 +2253,21 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="22">
         <v>1964</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F14" s="6">
         <v>0</v>
@@ -2272,21 +2277,21 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="22">
         <v>1965</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F15" s="6">
         <v>0</v>
@@ -2296,21 +2301,21 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="22">
         <v>1966</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F16" s="6">
         <v>0</v>
@@ -2320,21 +2325,21 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="22">
         <v>1967</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" s="6">
         <v>1</v>
@@ -2344,7 +2349,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="22">
         <v>1968</v>
       </c>
@@ -2368,7 +2373,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="22">
         <v>1969</v>
       </c>
@@ -2392,21 +2397,21 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="22">
         <v>1970</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>0</v>
@@ -2422,7 +2427,7 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F5 F3 F7 F9 F13 F15 F17">
+  <conditionalFormatting sqref="F3 F5 F7 F9 F13 F15 F17">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2439,7 +2444,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6 F4 F8 F10 F12 F14 F16">
+  <conditionalFormatting sqref="F4 F6 F8 F10 F12 F14 F16">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2480,83 +2485,83 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomRight" activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="48.7109375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="36.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
+    <col min="2" max="2" width="48.7265625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="24.7265625" customWidth="1"/>
+    <col min="4" max="4" width="36.7265625" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>4</v>
       </c>
       <c r="D1" s="28"/>
       <c r="E1" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="24"/>
       <c r="B2" s="26"/>
       <c r="C2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="22">
         <v>1953</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>21</v>
-      </c>
       <c r="E3" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F3" s="6">
         <v>0</v>
       </c>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="22">
         <v>1954</v>
       </c>
@@ -2577,7 +2582,7 @@
       </c>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22">
         <v>1955</v>
       </c>
@@ -2598,7 +2603,7 @@
       </c>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="22">
         <v>1956</v>
       </c>
@@ -2619,7 +2624,7 @@
       </c>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="22">
         <v>1957</v>
       </c>
@@ -2640,7 +2645,7 @@
       </c>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="22">
         <v>1958</v>
       </c>
@@ -2661,7 +2666,7 @@
       </c>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="22">
         <v>1959</v>
       </c>
@@ -2682,7 +2687,7 @@
       </c>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="22">
         <v>1960</v>
       </c>
@@ -2703,154 +2708,154 @@
       </c>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="22">
         <v>1961</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" s="6">
         <v>0</v>
       </c>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="22">
         <v>1962</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F12" s="6">
         <v>0</v>
       </c>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="22">
         <v>1963</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F13" s="6">
         <v>0</v>
       </c>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="22">
         <v>1964</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F14" s="6">
         <v>0</v>
       </c>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="22">
         <v>1965</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F15" s="6">
         <v>0</v>
       </c>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="22">
         <v>1966</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F16" s="6">
         <v>1</v>
       </c>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="22">
         <v>1967</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F17" s="6">
         <v>0</v>
       </c>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="22">
         <v>1968</v>
       </c>
@@ -2874,7 +2879,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="22">
         <v>1969</v>
       </c>
@@ -2898,21 +2903,21 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="22">
         <v>1970</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F20" s="20" t="s">
         <v>0</v>
@@ -2925,7 +2930,7 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F11 F3 F13 F15 F17">
+  <conditionalFormatting sqref="F3 F11 F13 F15 F17">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2942,7 +2947,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14 F12 F16">
+  <conditionalFormatting sqref="F12 F14 F16">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2966,76 +2971,76 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="48.7109375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="36.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
+    <col min="2" max="2" width="48.7265625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="24.7265625" customWidth="1"/>
+    <col min="4" max="4" width="36.7265625" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>4</v>
       </c>
       <c r="D1" s="28"/>
       <c r="E1" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="24"/>
       <c r="B2" s="26"/>
       <c r="C2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="22">
         <v>1953</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>21</v>
-      </c>
       <c r="E3" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F3" s="6">
         <v>0</v>
@@ -3045,21 +3050,21 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="22">
         <v>1954</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="F4" s="6">
         <v>0</v>
@@ -3069,21 +3074,21 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22">
         <v>1955</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F5" s="6">
         <v>0</v>
@@ -3093,21 +3098,21 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="22">
         <v>1956</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F6" s="6">
         <v>0</v>
@@ -3117,21 +3122,21 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="22">
         <v>1957</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F7" s="6">
         <v>0</v>
@@ -3141,21 +3146,21 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="22">
         <v>1958</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F8" s="6">
         <v>0</v>
@@ -3165,21 +3170,21 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="22">
         <v>1959</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F9" s="6">
         <v>0</v>
@@ -3189,21 +3194,21 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="22">
         <v>1960</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F10" s="6">
         <v>0</v>
@@ -3213,21 +3218,21 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="22">
         <v>1961</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F11" s="6">
         <v>0</v>
@@ -3237,21 +3242,21 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="22">
         <v>1962</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F12" s="6">
         <v>0</v>
@@ -3261,21 +3266,21 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="22">
         <v>1963</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F13" s="6">
         <v>0</v>
@@ -3285,21 +3290,21 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="22">
         <v>1964</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F14" s="6">
         <v>0</v>
@@ -3309,21 +3314,21 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="22">
         <v>1965</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F15" s="6">
         <v>0</v>
@@ -3333,21 +3338,21 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="22">
         <v>1966</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F16" s="6">
         <v>0</v>
@@ -3357,21 +3362,21 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="22">
         <v>1967</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F17" s="6">
         <v>0</v>
@@ -3381,7 +3386,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="22">
         <v>1968</v>
       </c>
@@ -3405,7 +3410,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="22">
         <v>1969</v>
       </c>
@@ -3429,21 +3434,21 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="22">
         <v>1970</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>0</v>
@@ -3459,7 +3464,7 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F5 F3 F7 F9 F13 F15 F17">
+  <conditionalFormatting sqref="F3 F5 F7 F9 F13 F15 F17">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3476,7 +3481,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6 F4 F8 F10 F12 F14 F16">
+  <conditionalFormatting sqref="F4 F6 F8 F10 F12 F14 F16">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3534,75 +3539,75 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="48.7109375" style="11" customWidth="1"/>
-    <col min="3" max="4" width="36.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
+    <col min="2" max="2" width="48.7265625" style="11" customWidth="1"/>
+    <col min="3" max="4" width="36.7265625" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>4</v>
       </c>
       <c r="D1" s="28"/>
       <c r="E1" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="24"/>
       <c r="B2" s="26"/>
       <c r="C2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="22">
         <v>1953</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>21</v>
-      </c>
       <c r="E3" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F3" s="6">
         <v>0</v>
@@ -3612,21 +3617,21 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="22">
         <v>1954</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F4" s="6">
         <v>0</v>
@@ -3636,21 +3641,21 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22">
         <v>1955</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F5" s="6">
         <v>0</v>
@@ -3660,21 +3665,21 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="22">
         <v>1956</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F6" s="6">
         <v>0</v>
@@ -3684,21 +3689,21 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="22">
         <v>1957</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F7" s="6">
         <v>0</v>
@@ -3708,21 +3713,21 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="22">
         <v>1958</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F8" s="6">
         <v>0</v>
@@ -3732,21 +3737,21 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="22">
         <v>1959</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F9" s="6">
         <v>0</v>
@@ -3756,21 +3761,21 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="22">
         <v>1960</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F10" s="6">
         <v>0</v>
@@ -3780,21 +3785,21 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="22">
         <v>1961</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F11" s="6">
         <v>0</v>
@@ -3804,21 +3809,21 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="22">
         <v>1962</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F12" s="6">
         <v>0</v>
@@ -3828,21 +3833,21 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="22">
         <v>1963</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F13" s="6">
         <v>0</v>
@@ -3852,21 +3857,21 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="22">
         <v>1964</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F14" s="6">
         <v>0</v>
@@ -3876,21 +3881,21 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="22">
         <v>1965</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F15" s="6">
         <v>0</v>
@@ -3900,21 +3905,21 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="22">
         <v>1966</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F16" s="6">
         <v>0</v>
@@ -3924,21 +3929,21 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="22">
         <v>1967</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F17" s="6">
         <v>0</v>
@@ -3948,7 +3953,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="22">
         <v>1968</v>
       </c>
@@ -3972,7 +3977,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="22">
         <v>1969</v>
       </c>
@@ -3996,21 +4001,21 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="22">
         <v>1970</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>0</v>
@@ -4026,7 +4031,7 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F5 F3 F7 F9 F13 F15 F17">
+  <conditionalFormatting sqref="F3 F5 F7 F9 F13 F15 F17">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4043,7 +4048,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6 F4 F8 F10 F12 F14 F16">
+  <conditionalFormatting sqref="F4 F6 F8 F10 F12 F14 F16">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4101,75 +4106,75 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="48.7109375" style="11" customWidth="1"/>
-    <col min="3" max="4" width="36.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
+    <col min="2" max="2" width="48.7265625" style="11" customWidth="1"/>
+    <col min="3" max="4" width="36.7265625" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>4</v>
       </c>
       <c r="D1" s="28"/>
       <c r="E1" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="24"/>
       <c r="B2" s="26"/>
       <c r="C2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="22">
         <v>1953</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>21</v>
-      </c>
       <c r="E3" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F3" s="6">
         <v>0</v>
@@ -4179,21 +4184,21 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="22">
         <v>1953</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>21</v>
-      </c>
       <c r="E4" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F4" s="6">
         <v>0</v>
@@ -4203,21 +4208,21 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22">
         <v>1954</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F5" s="6">
         <v>0</v>
@@ -4227,21 +4232,21 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="22">
         <v>1954</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F6" s="6">
         <v>0</v>
@@ -4251,21 +4256,21 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="22">
         <v>1955</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F7" s="6">
         <v>0</v>
@@ -4275,21 +4280,21 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="22">
         <v>1955</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F8" s="6">
         <v>0</v>
@@ -4299,21 +4304,21 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="22">
         <v>1956</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F9" s="6">
         <v>0</v>
@@ -4323,21 +4328,21 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="22">
         <v>1956</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F10" s="6">
         <v>0</v>
@@ -4347,21 +4352,21 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="22">
         <v>1957</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F11" s="6">
         <v>0</v>
@@ -4371,21 +4376,21 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="22">
         <v>1957</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F12" s="6">
         <v>0</v>
@@ -4395,21 +4400,21 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="22">
         <v>1958</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F13" s="6">
         <v>0</v>
@@ -4419,21 +4424,21 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="22">
         <v>1958</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F14" s="6">
         <v>0</v>
@@ -4443,21 +4448,21 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="22">
         <v>1959</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F15" s="6">
         <v>0</v>
@@ -4467,21 +4472,21 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="22">
         <v>1959</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F16" s="6">
         <v>0</v>
@@ -4491,21 +4496,21 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="22">
         <v>1960</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F17" s="6">
         <v>0</v>
@@ -4515,21 +4520,21 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="22">
         <v>1960</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F18" s="6">
         <v>0</v>
@@ -4539,21 +4544,21 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="22">
         <v>1961</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F19" s="6">
         <v>0</v>
@@ -4563,21 +4568,21 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="22">
         <v>1961</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F20" s="6">
         <v>0</v>
@@ -4587,21 +4592,21 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="22">
         <v>1962</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F21" s="6">
         <v>0</v>
@@ -4611,21 +4616,21 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="22">
         <v>1962</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F22" s="6">
         <v>0</v>
@@ -4635,21 +4640,21 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="22">
         <v>1963</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F23" s="6">
         <v>0</v>
@@ -4659,21 +4664,21 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="22">
         <v>1963</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F24" s="6">
         <v>0</v>
@@ -4683,21 +4688,21 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="22">
         <v>1964</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F25" s="6">
         <v>0</v>
@@ -4707,21 +4712,21 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="22">
         <v>1964</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F26" s="6">
         <v>0</v>
@@ -4731,21 +4736,21 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="22">
         <v>1965</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F27" s="6">
         <v>0</v>
@@ -4755,21 +4760,21 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="22">
         <v>1965</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F28" s="6">
         <v>0</v>
@@ -4779,21 +4784,21 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="22">
         <v>1966</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F29" s="6">
         <v>0</v>
@@ -4803,21 +4808,21 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="22">
         <v>1966</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F30" s="6">
         <v>0</v>
@@ -4827,7 +4832,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="22">
         <v>1967</v>
       </c>
@@ -4851,7 +4856,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="22">
         <v>1968</v>
       </c>
@@ -4875,7 +4880,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="22">
         <v>1969</v>
       </c>
@@ -4899,21 +4904,21 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="22">
         <v>1970</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>0</v>
@@ -4923,21 +4928,21 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="22">
         <v>1970</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>0</v>
@@ -4970,7 +4975,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5 F7 F9 F11 F13 F15 F17 F19 F21 F23 F25 F27 F29">
+  <conditionalFormatting sqref="F7 F5 F9 F11 F13 F15 F17 F19 F21 F23 F25 F27 F29">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5004,7 +5009,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F34))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4 F6 F8 F10 F12 F14 F16 F18 F20 F22 F24 F26 F28 F30">
+  <conditionalFormatting sqref="F6 F4 F8 F10 F12 F14 F16 F18 F20 F22 F24 F26 F28 F30">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5045,75 +5050,75 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="48.7109375" style="11" customWidth="1"/>
-    <col min="3" max="4" width="36.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
+    <col min="2" max="2" width="48.7265625" style="11" customWidth="1"/>
+    <col min="3" max="4" width="36.7265625" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>4</v>
       </c>
       <c r="D1" s="28"/>
       <c r="E1" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="24"/>
       <c r="B2" s="26"/>
       <c r="C2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="22">
         <v>1953</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="E3" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="F3" s="6">
         <v>0</v>
@@ -5123,21 +5128,21 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="22">
         <v>1954</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F4" s="6">
         <v>0</v>
@@ -5147,21 +5152,21 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22">
         <v>1955</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F5" s="6">
         <v>0</v>
@@ -5171,21 +5176,21 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="22">
         <v>1956</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F6" s="6">
         <v>0</v>
@@ -5195,21 +5200,21 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="22">
         <v>1957</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F7" s="6">
         <v>0</v>
@@ -5219,21 +5224,21 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="22">
         <v>1958</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F8" s="6">
         <v>0</v>
@@ -5243,21 +5248,21 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="22">
         <v>1959</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F9" s="6">
         <v>0</v>
@@ -5267,21 +5272,21 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="22">
         <v>1960</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F10" s="6">
         <v>0</v>
@@ -5291,21 +5296,21 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="22">
         <v>1961</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F11" s="6">
         <v>0</v>
@@ -5315,21 +5320,21 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="22">
         <v>1962</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F12" s="6">
         <v>0</v>
@@ -5339,21 +5344,21 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="22">
         <v>1963</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F13" s="6">
         <v>0</v>
@@ -5363,21 +5368,21 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="22">
         <v>1964</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F14" s="6">
         <v>0</v>
@@ -5387,21 +5392,21 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="22">
         <v>1965</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F15" s="6">
         <v>0</v>
@@ -5411,21 +5416,21 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="22">
         <v>1966</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F16" s="6">
         <v>0</v>
@@ -5435,21 +5440,21 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="22">
         <v>1967</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F17" s="6">
         <v>0</v>
@@ -5459,7 +5464,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="22">
         <v>1968</v>
       </c>
@@ -5483,7 +5488,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="22">
         <v>1969</v>
       </c>
@@ -5507,21 +5512,21 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="22">
         <v>1970</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>0</v>
@@ -5537,7 +5542,7 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F5 F7 F9 F13 F15 F17 F3">
+  <conditionalFormatting sqref="F7 F5 F9 F13 F15 F17 F3">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5554,7 +5559,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6 F4 F8 F10 F12 F14 F16">
+  <conditionalFormatting sqref="F4 F6 F8 F10 F12 F14 F16">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5612,75 +5617,75 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="48.7109375" style="11" customWidth="1"/>
-    <col min="3" max="4" width="36.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
+    <col min="2" max="2" width="48.7265625" style="11" customWidth="1"/>
+    <col min="3" max="4" width="36.7265625" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>4</v>
       </c>
       <c r="D1" s="28"/>
       <c r="E1" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="24"/>
       <c r="B2" s="26"/>
       <c r="C2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="22">
         <v>1953</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="E3" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="F3" s="6">
         <v>0</v>
@@ -5690,21 +5695,21 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="22">
         <v>1954</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F4" s="6">
         <v>0</v>
@@ -5714,21 +5719,21 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22">
         <v>1955</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F5" s="6">
         <v>0</v>
@@ -5738,21 +5743,21 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="22">
         <v>1956</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F6" s="6">
         <v>0</v>
@@ -5762,21 +5767,21 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="22">
         <v>1957</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F7" s="6">
         <v>0</v>
@@ -5786,21 +5791,21 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="22">
         <v>1958</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F8" s="6">
         <v>0</v>
@@ -5810,21 +5815,21 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="22">
         <v>1959</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F9" s="6">
         <v>0</v>
@@ -5834,21 +5839,21 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="22">
         <v>1960</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F10" s="6">
         <v>0</v>
@@ -5858,21 +5863,21 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="22">
         <v>1961</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F11" s="6">
         <v>0</v>
@@ -5882,21 +5887,21 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="22">
         <v>1962</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F12" s="6">
         <v>0</v>
@@ -5906,21 +5911,21 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="22">
         <v>1963</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F13" s="6">
         <v>0</v>
@@ -5930,21 +5935,21 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="22">
         <v>1964</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F14" s="6">
         <v>0</v>
@@ -5954,21 +5959,21 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="22">
         <v>1965</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F15" s="6">
         <v>0</v>
@@ -5978,21 +5983,21 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="22">
         <v>1966</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F16" s="6">
         <v>0</v>
@@ -6002,21 +6007,21 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="22">
         <v>1967</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F17" s="6">
         <v>0</v>
@@ -6026,7 +6031,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="22">
         <v>1968</v>
       </c>
@@ -6050,7 +6055,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="22">
         <v>1969</v>
       </c>
@@ -6074,21 +6079,21 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="22">
         <v>1970</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>0</v>
@@ -6104,7 +6109,7 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F7 F5 F9 F13 F15 F17 F3">
+  <conditionalFormatting sqref="F5 F7 F9 F13 F15 F17 F3">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6121,7 +6126,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6 F4 F8 F10 F12 F14 F16">
+  <conditionalFormatting sqref="F4 F6 F8 F10 F12 F14 F16">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6179,7 +6184,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6189,25 +6194,25 @@
       <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6215,36 +6220,36 @@
         <v>2</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="21" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>

--- a/Collections/United_Kingdom/#United_Kingdom#Before_DecimalDay#Regular#[1953-1970]#circulation_quality.xlsx
+++ b/Collections/United_Kingdom/#United_Kingdom#Before_DecimalDay#Regular#[1953-1970]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\United_Kingdom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF21A2DD-AB2E-4D8C-A804-01BB511B6183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94610FB-DB46-4465-A530-4D5533BABD10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7150" yWindow="2730" windowWidth="28800" windowHeight="17740" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4160" yWindow="1450" windowWidth="28720" windowHeight="19550" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="farthing" sheetId="38" r:id="rId1"/>
@@ -375,7 +375,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="152">
   <si>
     <t>-</t>
   </si>
@@ -1067,7 +1067,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1129,6 +1129,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1722,13 +1725,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1743,16 +1746,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="28"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="8" t="s">
         <v>7</v>
       </c>
@@ -1761,8 +1764,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="9" t="s">
         <v>4</v>
       </c>
@@ -1844,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="5" t="str">
-        <f t="shared" ref="G5:G6" si="0">IF(OR(AND(F5&gt;1,F5&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G5:G20" si="0">IF(OR(AND(F5&gt;1,F5&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -1872,19 +1875,349 @@
         <v/>
       </c>
     </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="23">
+        <v>1957</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="23">
+        <v>1958</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="N8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="23">
+        <v>1959</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="N9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="23">
+        <v>1960</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="N10" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="23">
+        <v>1961</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="23">
+        <v>1962</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="23">
+        <v>1963</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="23">
+        <v>1964</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="23">
+        <v>1965</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="23">
+        <v>1966</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="23">
+        <v>1967</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="23">
+        <v>1968</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="23">
+        <v>1969</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="23">
+        <v>1970</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -1893,7 +2226,7 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F5 F3">
+  <conditionalFormatting sqref="F3 F5">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1910,7 +2243,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6 F4">
+  <conditionalFormatting sqref="F4 F6">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1941,7 +2274,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1956,16 +2289,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="28"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="8" t="s">
         <v>7</v>
       </c>
@@ -1974,8 +2307,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="9" t="s">
         <v>4</v>
       </c>
@@ -2427,7 +2760,7 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3 F5 F7 F9 F13 F15 F17">
+  <conditionalFormatting sqref="F5 F3 F7 F9 F13 F15 F17">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2444,7 +2777,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4 F6 F8 F10 F12 F14 F16">
+  <conditionalFormatting sqref="F6 F4 F8 F10 F12 F14 F16">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2507,16 +2840,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="28"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="8" t="s">
         <v>7</v>
       </c>
@@ -2525,8 +2858,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="9" t="s">
         <v>4</v>
       </c>
@@ -2930,7 +3263,7 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3 F11 F13 F15 F17">
+  <conditionalFormatting sqref="F11 F3 F13 F15 F17">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2947,7 +3280,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F12 F14 F16">
+  <conditionalFormatting sqref="F14 F12 F16">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2993,16 +3326,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="28"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="8" t="s">
         <v>7</v>
       </c>
@@ -3011,8 +3344,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="9" t="s">
         <v>4</v>
       </c>
@@ -3464,7 +3797,7 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3 F5 F7 F9 F13 F15 F17">
+  <conditionalFormatting sqref="F5 F3 F7 F9 F13 F15 F17">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3481,7 +3814,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4 F6 F8 F10 F12 F14 F16">
+  <conditionalFormatting sqref="F6 F4 F8 F10 F12 F14 F16">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3560,16 +3893,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="28"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="8" t="s">
         <v>7</v>
       </c>
@@ -3578,8 +3911,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="9" t="s">
         <v>4</v>
       </c>
@@ -4031,7 +4364,7 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3 F5 F7 F9 F13 F15 F17">
+  <conditionalFormatting sqref="F5 F3 F7 F9 F13 F15 F17">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4048,7 +4381,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4 F6 F8 F10 F12 F14 F16">
+  <conditionalFormatting sqref="F6 F4 F8 F10 F12 F14 F16">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4113,7 +4446,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4127,16 +4460,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="28"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="8" t="s">
         <v>7</v>
       </c>
@@ -4145,8 +4478,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="9" t="s">
         <v>4</v>
       </c>
@@ -4975,7 +5308,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7 F5 F9 F11 F13 F15 F17 F19 F21 F23 F25 F27 F29">
+  <conditionalFormatting sqref="F5 F7 F9 F11 F13 F15 F17 F19 F21 F23 F25 F27 F29">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5009,7 +5342,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F34))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6 F4 F8 F10 F12 F14 F16 F18 F20 F22 F24 F26 F28 F30">
+  <conditionalFormatting sqref="F4 F6 F8 F10 F12 F14 F16 F18 F20 F22 F24 F26 F28 F30">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5053,11 +5386,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5071,16 +5404,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="28"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="8" t="s">
         <v>7</v>
       </c>
@@ -5089,8 +5422,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="9" t="s">
         <v>4</v>
       </c>
@@ -5542,7 +5875,7 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F7 F5 F9 F13 F15 F17 F3">
+  <conditionalFormatting sqref="F5 F7 F9 F13 F15 F17 F3">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5559,7 +5892,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4 F6 F8 F10 F12 F14 F16">
+  <conditionalFormatting sqref="F6 F4 F8 F10 F12 F14 F16">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5620,7 +5953,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -5638,16 +5971,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="28"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="8" t="s">
         <v>7</v>
       </c>
@@ -5656,8 +5989,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="9" t="s">
         <v>4</v>
       </c>
@@ -6109,7 +6442,7 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F5 F7 F9 F13 F15 F17 F3">
+  <conditionalFormatting sqref="F7 F5 F9 F13 F15 F17 F3">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6126,7 +6459,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4 F6 F8 F10 F12 F14 F16">
+  <conditionalFormatting sqref="F6 F4 F8 F10 F12 F14 F16">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/United_Kingdom/#United_Kingdom#Before_DecimalDay#Regular#[1953-1970]#circulation_quality.xlsx
+++ b/Collections/United_Kingdom/#United_Kingdom#Before_DecimalDay#Regular#[1953-1970]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\United_Kingdom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94610FB-DB46-4465-A530-4D5533BABD10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7050F46-1DA2-49E1-9D5A-938B3884CDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4160" yWindow="1450" windowWidth="28720" windowHeight="19550" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="farthing" sheetId="38" r:id="rId1"/>
@@ -2226,7 +2226,7 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3 F5">
+  <conditionalFormatting sqref="F5 F3">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2243,7 +2243,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4 F6">
+  <conditionalFormatting sqref="F6 F4">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2274,7 +2274,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
+      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2387,7 +2387,7 @@
         <v>32</v>
       </c>
       <c r="F5" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="5" t="str">
         <f t="shared" ref="G5:G20" si="0">IF(OR(AND(F5&gt;1,F5&lt;&gt;"-")),"Can exchange","")</f>
@@ -2411,7 +2411,7 @@
         <v>33</v>
       </c>
       <c r="F6" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2603,7 +2603,7 @@
         <v>40</v>
       </c>
       <c r="F14" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2627,7 +2627,7 @@
         <v>41</v>
       </c>
       <c r="F15" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2651,7 +2651,7 @@
         <v>42</v>
       </c>
       <c r="F16" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2760,7 +2760,7 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F5 F3 F7 F9 F13 F15 F17">
+  <conditionalFormatting sqref="F3 F5 F7 F9 F13 F15 F17">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2777,7 +2777,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6 F4 F8 F10 F12 F14 F16">
+  <conditionalFormatting sqref="F4 F6 F8 F10 F12 F14 F16">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2825,7 +2825,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B46" sqref="B46"/>
+      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3184,7 +3184,7 @@
         <v>50</v>
       </c>
       <c r="F17" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="5"/>
     </row>
@@ -3263,7 +3263,7 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F11 F3 F13 F15 F17">
+  <conditionalFormatting sqref="F3 F11 F13 F15 F17">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3280,7 +3280,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14 F12 F16">
+  <conditionalFormatting sqref="F12 F14 F16">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3797,7 +3797,7 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F5 F3 F7 F9 F13 F15 F17">
+  <conditionalFormatting sqref="F3 F5 F7 F9 F13 F15 F17">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3814,7 +3814,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6 F4 F8 F10 F12 F14 F16">
+  <conditionalFormatting sqref="F4 F6 F8 F10 F12 F14 F16">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3875,11 +3875,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3991,7 +3991,7 @@
         <v>73</v>
       </c>
       <c r="F5" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="5" t="str">
         <f t="shared" ref="G5:G20" si="0">IF(OR(AND(F5&gt;1,F5&lt;&gt;"-")),"Can exchange","")</f>
@@ -4063,7 +4063,7 @@
         <v>76</v>
       </c>
       <c r="F8" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="5" t="str">
         <f t="shared" si="0"/>
@@ -4364,7 +4364,7 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F5 F3 F7 F9 F13 F15 F17">
+  <conditionalFormatting sqref="F3 F5 F7 F9 F13 F15 F17">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4381,7 +4381,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6 F4 F8 F10 F12 F14 F16">
+  <conditionalFormatting sqref="F4 F6 F8 F10 F12 F14 F16">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5308,7 +5308,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5 F7 F9 F11 F13 F15 F17 F19 F21 F23 F25 F27 F29">
+  <conditionalFormatting sqref="F7 F5 F9 F11 F13 F15 F17 F19 F21 F23 F25 F27 F29">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5342,7 +5342,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F34))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4 F6 F8 F10 F12 F14 F16 F18 F20 F22 F24 F26 F28 F30">
+  <conditionalFormatting sqref="F6 F4 F8 F10 F12 F14 F16 F18 F20 F22 F24 F26 F28 F30">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5386,7 +5386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -5875,7 +5875,7 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F5 F7 F9 F13 F15 F17 F3">
+  <conditionalFormatting sqref="F7 F5 F9 F13 F15 F17 F3">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5892,7 +5892,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6 F4 F8 F10 F12 F14 F16">
+  <conditionalFormatting sqref="F4 F6 F8 F10 F12 F14 F16">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6442,7 +6442,7 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F7 F5 F9 F13 F15 F17 F3">
+  <conditionalFormatting sqref="F5 F7 F9 F13 F15 F17 F3">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6459,7 +6459,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6 F4 F8 F10 F12 F14 F16">
+  <conditionalFormatting sqref="F4 F6 F8 F10 F12 F14 F16">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/United_Kingdom/#United_Kingdom#Before_DecimalDay#Regular#[1953-1970]#circulation_quality.xlsx
+++ b/Collections/United_Kingdom/#United_Kingdom#Before_DecimalDay#Regular#[1953-1970]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\United_Kingdom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7050F46-1DA2-49E1-9D5A-938B3884CDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369E5897-FE43-4B5C-BA21-E0481328900B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="farthing" sheetId="38" r:id="rId1"/>
@@ -23,6 +23,16 @@
     <sheet name="halfcrown" sheetId="46" r:id="rId8"/>
     <sheet name="Links" sheetId="21" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">farthing!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">florin!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">halfcrown!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">halfpenny!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">penny!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">shilling!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">sixpence!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">threepence!$B$2:$E$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -389,12 +399,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Subtype_1</t>
-  </si>
-  <si>
-    <t>Subtype_2</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
@@ -831,6 +835,12 @@
   </si>
   <si>
     <t>Subject</t>
+  </si>
+  <si>
+    <t>Subtype_1#Reverse</t>
+  </si>
+  <si>
+    <t>Subtype_2#Legend</t>
   </si>
 </sst>
 </file>
@@ -911,6 +921,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -1136,14 +1147,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1151,6 +1158,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1727,56 +1738,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="48.7265625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="24.7265625" customWidth="1"/>
-    <col min="4" max="4" width="36.7265625" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="11" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="26" t="s">
+      <c r="A1" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="27"/>
+      <c r="E1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="C1" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1784,16 +1794,16 @@
         <v>1953</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="F3" s="6">
         <v>0</v>
@@ -1808,16 +1818,16 @@
         <v>1954</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F4" s="6">
         <v>0</v>
@@ -1832,16 +1842,16 @@
         <v>1955</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F5" s="6">
         <v>0</v>
@@ -1856,16 +1866,16 @@
         <v>1956</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F6" s="6">
         <v>0</v>
@@ -1923,7 +1933,7 @@
         <v/>
       </c>
       <c r="N8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1950,7 +1960,7 @@
         <v/>
       </c>
       <c r="N9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1977,7 +1987,7 @@
         <v/>
       </c>
       <c r="N10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2221,12 +2231,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F5 F3">
+  <conditionalFormatting sqref="F3 F5">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2243,7 +2253,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6 F4">
+  <conditionalFormatting sqref="F4 F6">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2274,52 +2284,51 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="48.7265625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="24.7265625" customWidth="1"/>
-    <col min="4" max="4" width="36.7265625" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="11" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="26" t="s">
+      <c r="A1" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="27"/>
+      <c r="E1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="C1" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2327,16 +2336,16 @@
         <v>1953</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F3" s="6">
         <v>0</v>
@@ -2351,16 +2360,16 @@
         <v>1954</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="F4" s="6">
         <v>0</v>
@@ -2375,16 +2384,16 @@
         <v>1955</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F5" s="6">
         <v>1</v>
@@ -2399,16 +2408,16 @@
         <v>1956</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F6" s="6">
         <v>1</v>
@@ -2423,16 +2432,16 @@
         <v>1957</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F7" s="6">
         <v>0</v>
@@ -2447,16 +2456,16 @@
         <v>1958</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F8" s="6">
         <v>0</v>
@@ -2471,16 +2480,16 @@
         <v>1959</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F9" s="6">
         <v>1</v>
@@ -2495,16 +2504,16 @@
         <v>1960</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F10" s="6">
         <v>0</v>
@@ -2543,16 +2552,16 @@
         <v>1962</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F12" s="6">
         <v>0</v>
@@ -2567,16 +2576,16 @@
         <v>1963</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F13" s="6">
         <v>0</v>
@@ -2591,16 +2600,16 @@
         <v>1964</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F14" s="6">
         <v>1</v>
@@ -2615,16 +2624,16 @@
         <v>1965</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F15" s="6">
         <v>1</v>
@@ -2639,16 +2648,16 @@
         <v>1966</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F16" s="6">
         <v>1</v>
@@ -2663,16 +2672,16 @@
         <v>1967</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F17" s="6">
         <v>1</v>
@@ -2735,16 +2744,16 @@
         <v>1970</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>0</v>
@@ -2755,12 +2764,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3 F5 F7 F9 F13 F15 F17">
+  <conditionalFormatting sqref="F5 F3 F7 F9 F13 F15 F17">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2777,7 +2786,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4 F6 F8 F10 F12 F14 F16">
+  <conditionalFormatting sqref="F6 F4 F8 F10 F12 F14 F16">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2825,52 +2834,51 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="48.7265625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="24.7265625" customWidth="1"/>
-    <col min="4" max="4" width="36.7265625" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="11" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="26" t="s">
+      <c r="A1" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="27"/>
+      <c r="E1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="C1" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2878,16 +2886,16 @@
         <v>1953</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F3" s="6">
         <v>0</v>
@@ -3046,16 +3054,16 @@
         <v>1961</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F11" s="6">
         <v>0</v>
@@ -3067,16 +3075,16 @@
         <v>1962</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F12" s="6">
         <v>0</v>
@@ -3088,16 +3096,16 @@
         <v>1963</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F13" s="6">
         <v>0</v>
@@ -3109,16 +3117,16 @@
         <v>1964</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F14" s="6">
         <v>0</v>
@@ -3130,16 +3138,16 @@
         <v>1965</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F15" s="6">
         <v>0</v>
@@ -3151,16 +3159,16 @@
         <v>1966</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F16" s="6">
         <v>1</v>
@@ -3172,16 +3180,16 @@
         <v>1967</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F17" s="6">
         <v>1</v>
@@ -3241,16 +3249,16 @@
         <v>1970</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F20" s="20" t="s">
         <v>0</v>
@@ -3258,12 +3266,12 @@
       <c r="G20" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3 F11 F13 F15 F17">
+  <conditionalFormatting sqref="F11 F3 F13 F15 F17">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3280,7 +3288,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F12 F14 F16">
+  <conditionalFormatting sqref="F14 F12 F16">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3311,52 +3319,51 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="48.7265625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="24.7265625" customWidth="1"/>
-    <col min="4" max="4" width="36.7265625" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="11" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="26" t="s">
+      <c r="A1" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="27"/>
+      <c r="E1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="C1" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3364,16 +3371,16 @@
         <v>1953</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F3" s="6">
         <v>0</v>
@@ -3388,16 +3395,16 @@
         <v>1954</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F4" s="6">
         <v>0</v>
@@ -3412,16 +3419,16 @@
         <v>1955</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="F5" s="6">
         <v>0</v>
@@ -3436,16 +3443,16 @@
         <v>1956</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F6" s="6">
         <v>0</v>
@@ -3460,16 +3467,16 @@
         <v>1957</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F7" s="6">
         <v>0</v>
@@ -3484,16 +3491,16 @@
         <v>1958</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F8" s="6">
         <v>0</v>
@@ -3508,16 +3515,16 @@
         <v>1959</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F9" s="6">
         <v>0</v>
@@ -3532,16 +3539,16 @@
         <v>1960</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F10" s="6">
         <v>0</v>
@@ -3556,16 +3563,16 @@
         <v>1961</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F11" s="6">
         <v>0</v>
@@ -3580,16 +3587,16 @@
         <v>1962</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F12" s="6">
         <v>0</v>
@@ -3604,16 +3611,16 @@
         <v>1963</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F13" s="6">
         <v>0</v>
@@ -3628,16 +3635,16 @@
         <v>1964</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F14" s="6">
         <v>0</v>
@@ -3652,16 +3659,16 @@
         <v>1965</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F15" s="6">
         <v>0</v>
@@ -3676,16 +3683,16 @@
         <v>1966</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F16" s="6">
         <v>0</v>
@@ -3700,16 +3707,16 @@
         <v>1967</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F17" s="6">
         <v>0</v>
@@ -3772,16 +3779,16 @@
         <v>1970</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>0</v>
@@ -3792,12 +3799,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3 F5 F7 F9 F13 F15 F17">
+  <conditionalFormatting sqref="F5 F3 F7 F9 F13 F15 F17">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3814,7 +3821,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4 F6 F8 F10 F12 F14 F16">
+  <conditionalFormatting sqref="F6 F4 F8 F10 F12 F14 F16">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3875,55 +3882,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="48.7265625" style="11" customWidth="1"/>
-    <col min="3" max="4" width="36.7265625" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="11" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="26" t="s">
+      <c r="A1" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="27"/>
+      <c r="E1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="C1" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3931,16 +3938,16 @@
         <v>1953</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F3" s="6">
         <v>0</v>
@@ -3955,16 +3962,16 @@
         <v>1954</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F4" s="6">
         <v>0</v>
@@ -3979,16 +3986,16 @@
         <v>1955</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F5" s="6">
         <v>1</v>
@@ -4003,16 +4010,16 @@
         <v>1956</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F6" s="6">
         <v>0</v>
@@ -4027,16 +4034,16 @@
         <v>1957</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F7" s="6">
         <v>0</v>
@@ -4051,16 +4058,16 @@
         <v>1958</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F8" s="6">
         <v>1</v>
@@ -4075,16 +4082,16 @@
         <v>1959</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F9" s="6">
         <v>0</v>
@@ -4099,16 +4106,16 @@
         <v>1960</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F10" s="6">
         <v>0</v>
@@ -4123,16 +4130,16 @@
         <v>1961</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F11" s="6">
         <v>0</v>
@@ -4147,16 +4154,16 @@
         <v>1962</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F12" s="6">
         <v>0</v>
@@ -4171,16 +4178,16 @@
         <v>1963</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F13" s="6">
         <v>0</v>
@@ -4195,16 +4202,16 @@
         <v>1964</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F14" s="6">
         <v>0</v>
@@ -4219,16 +4226,16 @@
         <v>1965</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F15" s="6">
         <v>0</v>
@@ -4243,16 +4250,16 @@
         <v>1966</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F16" s="6">
         <v>0</v>
@@ -4267,16 +4274,16 @@
         <v>1967</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F17" s="6">
         <v>0</v>
@@ -4339,16 +4346,16 @@
         <v>1970</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>0</v>
@@ -4359,12 +4366,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3 F5 F7 F9 F13 F15 F17">
+  <conditionalFormatting sqref="F5 F3 F7 F9 F13 F15 F17">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4381,7 +4388,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4 F6 F8 F10 F12 F14 F16">
+  <conditionalFormatting sqref="F6 F4 F8 F10 F12 F14 F16">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4446,51 +4453,51 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B52" sqref="B52"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="48.7265625" style="11" customWidth="1"/>
-    <col min="3" max="4" width="36.7265625" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="11" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="26" t="s">
+      <c r="A1" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="27"/>
+      <c r="E1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="C1" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4498,16 +4505,16 @@
         <v>1953</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F3" s="6">
         <v>0</v>
@@ -4522,16 +4529,16 @@
         <v>1953</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F4" s="6">
         <v>0</v>
@@ -4546,16 +4553,16 @@
         <v>1954</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="F5" s="6">
         <v>0</v>
@@ -4570,16 +4577,16 @@
         <v>1954</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F6" s="6">
         <v>0</v>
@@ -4594,16 +4601,16 @@
         <v>1955</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F7" s="6">
         <v>0</v>
@@ -4618,16 +4625,16 @@
         <v>1955</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F8" s="6">
         <v>0</v>
@@ -4642,16 +4649,16 @@
         <v>1956</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F9" s="6">
         <v>0</v>
@@ -4666,16 +4673,16 @@
         <v>1956</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F10" s="6">
         <v>0</v>
@@ -4690,16 +4697,16 @@
         <v>1957</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F11" s="6">
         <v>0</v>
@@ -4714,16 +4721,16 @@
         <v>1957</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F12" s="6">
         <v>0</v>
@@ -4738,16 +4745,16 @@
         <v>1958</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F13" s="6">
         <v>0</v>
@@ -4762,16 +4769,16 @@
         <v>1958</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F14" s="6">
         <v>0</v>
@@ -4786,16 +4793,16 @@
         <v>1959</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F15" s="6">
         <v>0</v>
@@ -4810,16 +4817,16 @@
         <v>1959</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F16" s="6">
         <v>0</v>
@@ -4834,16 +4841,16 @@
         <v>1960</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F17" s="6">
         <v>0</v>
@@ -4858,16 +4865,16 @@
         <v>1960</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F18" s="6">
         <v>0</v>
@@ -4882,16 +4889,16 @@
         <v>1961</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F19" s="6">
         <v>0</v>
@@ -4906,16 +4913,16 @@
         <v>1961</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F20" s="6">
         <v>0</v>
@@ -4930,16 +4937,16 @@
         <v>1962</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F21" s="6">
         <v>0</v>
@@ -4954,16 +4961,16 @@
         <v>1962</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F22" s="6">
         <v>0</v>
@@ -4978,16 +4985,16 @@
         <v>1963</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F23" s="6">
         <v>0</v>
@@ -5002,16 +5009,16 @@
         <v>1963</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F24" s="6">
         <v>0</v>
@@ -5026,16 +5033,16 @@
         <v>1964</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F25" s="6">
         <v>0</v>
@@ -5050,16 +5057,16 @@
         <v>1964</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F26" s="6">
         <v>0</v>
@@ -5074,16 +5081,16 @@
         <v>1965</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F27" s="6">
         <v>0</v>
@@ -5098,16 +5105,16 @@
         <v>1965</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F28" s="6">
         <v>0</v>
@@ -5122,16 +5129,16 @@
         <v>1966</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F29" s="6">
         <v>0</v>
@@ -5146,16 +5153,16 @@
         <v>1966</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F30" s="6">
         <v>0</v>
@@ -5242,16 +5249,16 @@
         <v>1970</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>0</v>
@@ -5266,16 +5273,16 @@
         <v>1970</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>0</v>
@@ -5286,9 +5293,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0500-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3">
@@ -5308,7 +5315,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7 F5 F9 F11 F13 F15 F17 F19 F21 F23 F25 F27 F29">
+  <conditionalFormatting sqref="F5 F7 F9 F11 F13 F15 F17 F19 F21 F23 F25 F27 F29">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5342,7 +5349,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(F34))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6 F4 F8 F10 F12 F14 F16 F18 F20 F22 F24 F26 F28 F30">
+  <conditionalFormatting sqref="F4 F6 F8 F10 F12 F14 F16 F18 F20 F22 F24 F26 F28 F30">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5386,55 +5393,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="48.7265625" style="11" customWidth="1"/>
-    <col min="3" max="4" width="36.7265625" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="11" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="26" t="s">
+      <c r="A1" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="27"/>
+      <c r="E1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="C1" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5442,16 +5449,16 @@
         <v>1953</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F3" s="6">
         <v>0</v>
@@ -5466,16 +5473,16 @@
         <v>1954</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="F4" s="6">
         <v>0</v>
@@ -5490,16 +5497,16 @@
         <v>1955</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F5" s="6">
         <v>0</v>
@@ -5514,16 +5521,16 @@
         <v>1956</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F6" s="6">
         <v>0</v>
@@ -5538,16 +5545,16 @@
         <v>1957</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F7" s="6">
         <v>0</v>
@@ -5562,16 +5569,16 @@
         <v>1958</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F8" s="6">
         <v>0</v>
@@ -5586,16 +5593,16 @@
         <v>1959</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F9" s="6">
         <v>0</v>
@@ -5610,16 +5617,16 @@
         <v>1960</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F10" s="6">
         <v>0</v>
@@ -5634,16 +5641,16 @@
         <v>1961</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F11" s="6">
         <v>0</v>
@@ -5658,16 +5665,16 @@
         <v>1962</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F12" s="6">
         <v>0</v>
@@ -5682,16 +5689,16 @@
         <v>1963</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F13" s="6">
         <v>0</v>
@@ -5706,16 +5713,16 @@
         <v>1964</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F14" s="6">
         <v>0</v>
@@ -5730,16 +5737,16 @@
         <v>1965</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F15" s="6">
         <v>0</v>
@@ -5754,16 +5761,16 @@
         <v>1966</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F16" s="6">
         <v>0</v>
@@ -5778,16 +5785,16 @@
         <v>1967</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F17" s="6">
         <v>0</v>
@@ -5850,16 +5857,16 @@
         <v>1970</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>0</v>
@@ -5870,12 +5877,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0600-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F7 F5 F9 F13 F15 F17 F3">
+  <conditionalFormatting sqref="F5 F7 F9 F13 F15 F17 F3">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5892,7 +5899,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4 F6 F8 F10 F12 F14 F16">
+  <conditionalFormatting sqref="F6 F4 F8 F10 F12 F14 F16">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5957,51 +5964,51 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="48.7265625" style="11" customWidth="1"/>
-    <col min="3" max="4" width="36.7265625" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="11" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="26" t="s">
+      <c r="A1" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="27"/>
+      <c r="E1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="C1" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6009,16 +6016,16 @@
         <v>1953</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F3" s="6">
         <v>0</v>
@@ -6033,16 +6040,16 @@
         <v>1954</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="F4" s="6">
         <v>0</v>
@@ -6057,16 +6064,16 @@
         <v>1955</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F5" s="6">
         <v>0</v>
@@ -6081,16 +6088,16 @@
         <v>1956</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F6" s="6">
         <v>0</v>
@@ -6105,16 +6112,16 @@
         <v>1957</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F7" s="6">
         <v>0</v>
@@ -6129,16 +6136,16 @@
         <v>1958</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F8" s="6">
         <v>0</v>
@@ -6153,16 +6160,16 @@
         <v>1959</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F9" s="6">
         <v>0</v>
@@ -6177,16 +6184,16 @@
         <v>1960</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F10" s="6">
         <v>0</v>
@@ -6201,16 +6208,16 @@
         <v>1961</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F11" s="6">
         <v>0</v>
@@ -6225,16 +6232,16 @@
         <v>1962</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F12" s="6">
         <v>0</v>
@@ -6249,16 +6256,16 @@
         <v>1963</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F13" s="6">
         <v>0</v>
@@ -6273,16 +6280,16 @@
         <v>1964</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F14" s="6">
         <v>0</v>
@@ -6297,16 +6304,16 @@
         <v>1965</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F15" s="6">
         <v>0</v>
@@ -6321,16 +6328,16 @@
         <v>1966</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F16" s="6">
         <v>0</v>
@@ -6345,16 +6352,16 @@
         <v>1967</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F17" s="6">
         <v>0</v>
@@ -6417,16 +6424,16 @@
         <v>1970</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>0</v>
@@ -6437,12 +6444,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0700-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F5 F7 F9 F13 F15 F17 F3">
+  <conditionalFormatting sqref="F7 F5 F9 F13 F15 F17 F3">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6459,7 +6466,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4 F6 F8 F10 F12 F14 F16">
+  <conditionalFormatting sqref="F6 F4 F8 F10 F12 F14 F16">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6539,10 +6546,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -6553,7 +6560,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -6561,10 +6568,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -6572,10 +6579,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
